--- a/biology/Botanique/Pyrale_de_la_vigne/Pyrale_de_la_vigne.xlsx
+++ b/biology/Botanique/Pyrale_de_la_vigne/Pyrale_de_la_vigne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sparganothis pilleriana
 Sparganothis pilleriana est une espèce de lépidoptères (papillons) de la famille des Tortricidae.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pyrale de la vigne est un papillon de mœurs nocturnes, de 20 à 25 mm d'envergure, aux ailes supérieures jaune fauve avec des reflets cuivrés et marquées par trois bandes brunes, et aux ailes inférieures brun violacé avec une frange plus claire.
 Les chenilles, au corps verdâtre et à la tête noire, peuvent atteindre jusqu'à 2 à 3 cm de long.
@@ -545,7 +559,9 @@
           <t>Cycle biologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cycle biologique est annuel (une seule génération par an). Les femelles pondent en juillet ou août selon les régions, déposant leurs œufs sur la face supérieure des feuilles, par plaques de 60 à 100 environ.
 Les chenilles éclosent au bout de 10 à 12 jours et se protègent pour hiverner dans les crevasses de la souche du pied de vigne ou sous l'écorce, où elles tissent de légers cocons de 3 à 4 mm de long.
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,7 +623,9 @@
           <t>Moyens de lutte</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Traitements insecticides :
 contre les larves hibernantes en fin d'hiver, en association avec d'autres traitements contre les cochenilles notamment.
